--- a/Process_Design/T=740K,P=6atm.xlsx
+++ b/Process_Design/T=740K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.0588248962</v>
       </c>
@@ -675,112 +759,157 @@
         <v>21.3265</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>77168.60397332715</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>161745.3939280937</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>53915.13130936457</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>2.156899706230242</v>
+      </c>
+      <c r="T2">
         <v>1709.450862172779</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>145125.2554865432</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>199040.3867959078</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.0588248962</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA2">
+        <v>529.9092683115423</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>233672.9367012073</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>488376.4377055233</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>162792.1459018411</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>162792.1459018411</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.0588248962</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.47070267</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>866083.3920138796</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>7032.597143152701</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.0588248962</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>406.9013627722904</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>17706236.7618879</v>
+      </c>
+      <c r="AS2">
+        <v>37006034.8323457</v>
+      </c>
+      <c r="AT2">
+        <v>12335344.94411523</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>12601735.20505783</v>
       </c>
-      <c r="AH2">
-        <v>17706236.7618879</v>
-      </c>
-      <c r="AI2">
-        <v>37006034.8323457</v>
-      </c>
-      <c r="AJ2">
-        <v>12335344.94411523</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>24937080.14917307</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.0588248962</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>49380.32528827659</v>
+      </c>
+      <c r="BB2">
+        <v>31662.7158842571</v>
+      </c>
+      <c r="BC2">
+        <v>66175.07619809733</v>
+      </c>
+      <c r="BD2">
+        <v>22058.35873269911</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>18889.28226965388</v>
       </c>
-      <c r="AO2">
-        <v>31662.7158842571</v>
-      </c>
-      <c r="AP2">
-        <v>66175.07619809733</v>
-      </c>
-      <c r="AQ2">
-        <v>22058.35873269911</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>40947.64100235299</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.0588248962</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9044475630318816</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>199040.3867959078</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>162792.1459018411</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>24937080.14917307</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>40947.64100235299</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>7032.597143152701</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>67401870.79382436</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>42054977.87380804</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.09383062070000001</v>
       </c>
@@ -818,112 +947,157 @@
         <v>22.79793023405</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>87411.28410315816</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>183214.0514802195</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>61071.35049340651</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>2.634859433628019</v>
+      </c>
+      <c r="T3">
         <v>2088.257844121887</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>177284.3898915977</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>238355.7403850042</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.09383062070000001</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA3">
+        <v>558.2260258980092</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>241715.212491147</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>505184.7941064971</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>168394.9313688324</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>168394.9313688324</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.09383062070000001</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.60272959</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>912364.2837209925</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7408.397983814459</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.09383062070000001</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>267.6300935892399</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>12401242.45785064</v>
+      </c>
+      <c r="AS3">
+        <v>25918596.73690784</v>
+      </c>
+      <c r="AT3">
+        <v>8639532.245635945</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>8288503.998458759</v>
       </c>
-      <c r="AH3">
-        <v>12401242.45785064</v>
-      </c>
-      <c r="AI3">
-        <v>25918596.73690784</v>
-      </c>
-      <c r="AJ3">
-        <v>8639532.245635945</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>16928036.2440947</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.09383062070000001</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>32482.68795440207</v>
+      </c>
+      <c r="BB3">
+        <v>24315.79680439711</v>
+      </c>
+      <c r="BC3">
+        <v>50820.01532118995</v>
+      </c>
+      <c r="BD3">
+        <v>16940.00510706331</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>12425.48845245164</v>
       </c>
-      <c r="AO3">
-        <v>24315.79680439711</v>
-      </c>
-      <c r="AP3">
-        <v>50820.01532118995</v>
-      </c>
-      <c r="AQ3">
-        <v>16940.00510706331</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>29365.49355951496</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.09383062070000001</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8629929814155719</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>238355.7403850042</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>168394.9313688324</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>16928036.2440947</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>29365.49355951496</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7408.397983814459</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>66052889.61211615</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>48681328.80472428</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.120212941</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>24.37088235126</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>99013.48711297524</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>207532.2689887961</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>69177.42299626538</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>3.218732978260806</v>
+      </c>
+      <c r="T4">
         <v>2551.006821920602</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>216569.8499859678</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>285747.2729822332</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.120212941</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA4">
+        <v>591.2571649782213</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>250918.1647181773</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>524418.9642609905</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>174806.3214203301</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>174806.3214203301</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.120212941</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.75673732</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>966350.3577291443</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7846.764904760651</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.120212941</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>220.3979053098849</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>10514456.71943933</v>
+      </c>
+      <c r="AS4">
+        <v>21975214.54362819</v>
+      </c>
+      <c r="AT4">
+        <v>7325071.514542731</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>6825723.127447137</v>
       </c>
-      <c r="AH4">
-        <v>10514456.71943933</v>
-      </c>
-      <c r="AI4">
-        <v>21975214.54362819</v>
-      </c>
-      <c r="AJ4">
-        <v>7325071.514542731</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>14150794.64198987</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.120212941</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>26759.51650029387</v>
+      </c>
+      <c r="BB4">
+        <v>21492.71167920198</v>
+      </c>
+      <c r="BC4">
+        <v>44919.76740953214</v>
+      </c>
+      <c r="BD4">
+        <v>14973.25580317738</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>10236.22379201935</v>
       </c>
-      <c r="AO4">
-        <v>21492.71167920198</v>
-      </c>
-      <c r="AP4">
-        <v>44919.76740953214</v>
-      </c>
-      <c r="AQ4">
-        <v>14973.25580317738</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>25209.47959519672</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.120212941</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8184828349060589</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>285747.2729822332</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>174806.3214203301</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>14150794.64198987</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>25209.47959519672</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7846.764904760651</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>64467620.35219551</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>49823215.87130312</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.140481916</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>26.05236092572</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>112155.6643194578</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>235078.2724135835</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>78359.42413786115</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>3.931990399779133</v>
+      </c>
+      <c r="T5">
         <v>3116.298991344952</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>264560.7997860559</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>342920.223923917</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.140481916</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA5">
+        <v>629.7438306485593</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>261417.0927682148</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>546361.7238855688</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>182120.5746285229</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>182120.5746285229</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.140481916</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.93618145</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>1029252.941141733</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>8357.533882070866</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.140481916</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>200.0780745647936</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>9684563.896850865</v>
+      </c>
+      <c r="AS5">
+        <v>20240738.54441831</v>
+      </c>
+      <c r="AT5">
+        <v>6746912.848139436</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>6196417.969271658</v>
       </c>
-      <c r="AH5">
-        <v>9684563.896850865</v>
-      </c>
-      <c r="AI5">
-        <v>20240738.54441831</v>
-      </c>
-      <c r="AJ5">
-        <v>6746912.848139436</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>12943330.81741109</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.140481916</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>24318.76955158131</v>
+      </c>
+      <c r="BB5">
+        <v>20216.03483433302</v>
+      </c>
+      <c r="BC5">
+        <v>42251.51280375601</v>
+      </c>
+      <c r="BD5">
+        <v>14083.837601252</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>9302.573440510352</v>
       </c>
-      <c r="AO5">
-        <v>20216.03483433302</v>
-      </c>
-      <c r="AP5">
-        <v>42251.51280375601</v>
-      </c>
-      <c r="AQ5">
-        <v>14083.837601252</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>23386.41104176236</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.140481916</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.7714246968093093</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>342920.223923917</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>182120.5746285229</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>12943330.81741109</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>23386.41104176236</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>8357.533882070866</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>62615885.51908926</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>49115769.95820189</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.156330203</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>27.8498537572</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>127042.2181088552</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>266280.4891561606</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>88760.16305205354</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>4.803302598226463</v>
+      </c>
+      <c r="T6">
         <v>3806.857474224384</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>323186.3376555076</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>411946.5007075611</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.156330203</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA6">
+        <v>674.5903121946774</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>273371.6641202348</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>571346.7780112908</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>190448.9260037636</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>190448.9260037636</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.156330203</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-3.14527823</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>1102550.003827782</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>8952.706031081589</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.156330203</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>191.9688910976922</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>9349894.752039891</v>
+      </c>
+      <c r="AS6">
+        <v>19541280.03176337</v>
+      </c>
+      <c r="AT6">
+        <v>6513760.01058779</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>5945276.557295527</v>
       </c>
-      <c r="AH6">
-        <v>9349894.752039891</v>
-      </c>
-      <c r="AI6">
-        <v>19541280.03176337</v>
-      </c>
-      <c r="AJ6">
-        <v>6513760.01058779</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>12459036.56788332</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.156330203</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>23359.45949127937</v>
+      </c>
+      <c r="BB6">
+        <v>19700.32253691079</v>
+      </c>
+      <c r="BC6">
+        <v>41173.67410214354</v>
+      </c>
+      <c r="BD6">
+        <v>13724.55803404784</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>8935.611934943599</v>
       </c>
-      <c r="AO6">
-        <v>19700.32253691079</v>
-      </c>
-      <c r="AP6">
-        <v>41173.67410214354</v>
-      </c>
-      <c r="AQ6">
-        <v>13724.55803404784</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>22660.16996899145</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.156330203</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7223086331069888</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>411946.5007075611</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>190448.9260037636</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>12459036.56788332</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>22660.16996899145</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>8952.706031081589</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>60457135.09828466</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>47364090.22768995</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.168858914</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>29.77136533735001</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>143904.6820153288</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>301624.2135041291</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>100541.4045013764</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>5.8676938570137</v>
+      </c>
+      <c r="T7">
         <v>4650.440766376209</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>394803.0442288136</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>495344.4487301899</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.168858914</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA7">
+        <v>726.7578704677082</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>286933.1756292764</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>599690.3370651877</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>199896.7790217292</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>199896.7790217292</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.168858914</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-3.38850954</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1187812.629948949</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>9645.038555185467</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.168858914</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>191.0316413132909</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>9311078.872016462</v>
+      </c>
+      <c r="AS7">
+        <v>19460154.8425144</v>
+      </c>
+      <c r="AT7">
+        <v>6486718.280838134</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>5916249.931472621</v>
       </c>
-      <c r="AH7">
-        <v>9311078.872016462</v>
-      </c>
-      <c r="AI7">
-        <v>19460154.8425144</v>
-      </c>
-      <c r="AJ7">
-        <v>6486718.280838134</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>12402968.21231075</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.168858914</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>23271.79207676755</v>
+      </c>
+      <c r="BB7">
+        <v>19652.77504252883</v>
+      </c>
+      <c r="BC7">
+        <v>41074.29983888525</v>
+      </c>
+      <c r="BD7">
+        <v>13691.43327962842</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>8902.076827005423</v>
       </c>
-      <c r="AO7">
-        <v>19652.77504252883</v>
-      </c>
-      <c r="AP7">
-        <v>41074.29983888525</v>
-      </c>
-      <c r="AQ7">
-        <v>13691.43327962842</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>22593.51010663384</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.168858914</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.6717705494558496</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>495344.4487301899</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>199896.7790217292</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>12402968.21231075</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>22593.51010663384</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>9645.038555185467</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>57926854.85308308</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>44796406.86435859</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.179229409</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>31.82545235012</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>163005.3205875675</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>341659.1519515416</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>113886.3839838472</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>7.167949646238978</v>
+      </c>
+      <c r="T8">
         <v>5680.958492126703</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>482289.7053211732</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>596176.0893050204</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.179229409</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA8">
+        <v>787.2766435108854</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>302245.7621239445</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>631693.642839044</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>210564.5476130146</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>210564.5476130146</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.179229409</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.6706784</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1286724.476508572</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>10448.2027492496</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.179229409</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>194.7590129325787</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>9465279.102830745</v>
+      </c>
+      <c r="AS8">
+        <v>19782433.32491625</v>
+      </c>
+      <c r="AT8">
+        <v>6594144.441638751</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>6031686.630521961</v>
       </c>
-      <c r="AH8">
-        <v>9465279.102830745</v>
-      </c>
-      <c r="AI8">
-        <v>19782433.32491625</v>
-      </c>
-      <c r="AJ8">
-        <v>6594144.441638751</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>12625831.07216071</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.179229409</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>23752.49807955748</v>
+      </c>
+      <c r="BB8">
+        <v>19912.62042562464</v>
+      </c>
+      <c r="BC8">
+        <v>41617.37668955549</v>
+      </c>
+      <c r="BD8">
+        <v>13872.4588965185</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>9085.959604658405</v>
       </c>
-      <c r="AO8">
-        <v>19912.62042562464</v>
-      </c>
-      <c r="AP8">
-        <v>41617.37668955549</v>
-      </c>
-      <c r="AQ8">
-        <v>13872.4588965185</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>22958.4185011769</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.179229409</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6205415056691683</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>596176.0893050204</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>210564.5476130146</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>12625831.07216071</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>22958.4185011769</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>10448.2027492496</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>54990996.32539888</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>41525017.9950697</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.188121206</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>34.0212618626</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>184641.2091104123</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>387007.9742954243</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>129002.6580984748</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>8.756336511322692</v>
+      </c>
+      <c r="T9">
         <v>6939.834502048801</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>589163.0332468514</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>718165.6913453261</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.188121206</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA9">
+        <v>857.2333548740502</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>319441.8565114927</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>667633.4801090198</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>222544.4933696733</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>222544.4933696733</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.188121206</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.99685166</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1401061.683828231</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>11376.62087268523</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.188121206</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>202.1464042493258</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>9769596.160379719</v>
+      </c>
+      <c r="AS9">
+        <v>20418455.97519361</v>
+      </c>
+      <c r="AT9">
+        <v>6806151.991731204</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>6260474.139601619</v>
       </c>
-      <c r="AH9">
-        <v>9769596.160379719</v>
-      </c>
-      <c r="AI9">
-        <v>20418455.97519361</v>
-      </c>
-      <c r="AJ9">
-        <v>6806151.991731204</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>13066626.13133282</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.188121206</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>24680.41075138349</v>
+      </c>
+      <c r="BB9">
+        <v>20408.3283795109</v>
+      </c>
+      <c r="BC9">
+        <v>42653.40631317777</v>
+      </c>
+      <c r="BD9">
+        <v>14217.80210439259</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>9440.910777567575</v>
       </c>
-      <c r="AO9">
-        <v>20408.3283795109</v>
-      </c>
-      <c r="AP9">
-        <v>42653.40631317777</v>
-      </c>
-      <c r="AQ9">
-        <v>14217.80210439259</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>23658.71288196016</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.188121206</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.5694083953808227</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>718165.6913453261</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>222544.4933696733</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>13066626.13133282</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>23658.71288196016</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>11376.62087268523</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>51573452.98329171</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>37531081.33348924</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.196112787</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>36.36857227190001</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>209148.8563848593</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>438376.0029826651</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>146125.334327555</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>10.69670322875903</v>
+      </c>
+      <c r="T10">
         <v>8477.672143952972</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>719719.0413876743</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>865844.3757152293</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.196112787</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA10">
+        <v>937.9722057814071</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>338688.8595245669</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>707859.7164063448</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>235953.2388021149</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>235953.2388021149</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.196112787</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-4.37329666</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1533021.21358689</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>12448.13225432555</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.196112787</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>212.6437193487768</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>10199177.97747286</v>
+      </c>
+      <c r="AS10">
+        <v>21316281.97291828</v>
+      </c>
+      <c r="AT10">
+        <v>7105427.324306091</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>6585575.988231617</v>
       </c>
-      <c r="AH10">
-        <v>10199177.97747286</v>
-      </c>
-      <c r="AI10">
-        <v>21316281.97291828</v>
-      </c>
-      <c r="AJ10">
-        <v>7105427.324306091</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>13691003.31253771</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.196112787</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>25989.35783648803</v>
+      </c>
+      <c r="BB10">
+        <v>21095.09582652261</v>
+      </c>
+      <c r="BC10">
+        <v>44088.75027743225</v>
+      </c>
+      <c r="BD10">
+        <v>14696.25009247742</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>9941.617705321458</v>
       </c>
-      <c r="AO10">
-        <v>21095.09582652261</v>
-      </c>
-      <c r="AP10">
-        <v>44088.75027743225</v>
-      </c>
-      <c r="AQ10">
-        <v>14696.25009247742</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>24637.86779779887</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.196112787</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5190631515330509</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>865844.3757152293</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>235953.2388021149</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>13691003.31253771</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>24637.86779779887</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>12448.13225432555</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>47621533.33259761</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>32791646.40549044</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.203615284</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>38.8778361222</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>236909.4309106074</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>496562.1671886332</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>165520.7223962111</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>13.06704674137191</v>
+      </c>
+      <c r="T11">
         <v>10356.28789487431</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>879205.6910752672</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1044726.413471478</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.203615284</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA11">
+        <v>1030.878384040615</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>360132.4562569557</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>752676.8335770373</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>250892.2778590124</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>250892.2778590124</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.203615284</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-4.80647184</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1684867.015911062</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>13681.12016919782</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.203615284</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>226.0258868879267</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>10742242.42733477</v>
+      </c>
+      <c r="AS11">
+        <v>22451286.67312968</v>
+      </c>
+      <c r="AT11">
+        <v>7483762.224376559</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>7000021.71691909</v>
       </c>
-      <c r="AH11">
-        <v>10742242.42733477</v>
-      </c>
-      <c r="AI11">
-        <v>22451286.67312968</v>
-      </c>
-      <c r="AJ11">
-        <v>7483762.224376559</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>14483783.94129565</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.203615284</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>27652.60212487079</v>
+      </c>
+      <c r="BB11">
+        <v>21948.10419413751</v>
+      </c>
+      <c r="BC11">
+        <v>45871.53776574739</v>
+      </c>
+      <c r="BD11">
+        <v>15290.51258858246</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>10577.85269695507</v>
       </c>
-      <c r="AO11">
-        <v>21948.10419413751</v>
-      </c>
-      <c r="AP11">
-        <v>45871.53776574739</v>
-      </c>
-      <c r="AQ11">
-        <v>15290.51258858246</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>25868.36528553753</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.203615284</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.4701938152138275</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>1044726.413471478</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>250892.2778590124</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>14483783.94129565</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>25868.36528553753</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>13681.12016919782</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>43057099.25429518</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>27238147.13621431</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.210935631</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>41.5602275152</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>268354.6980856697</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>562471.4471875638</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>187490.4823958546</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>15.96264808849675</v>
+      </c>
+      <c r="T12">
         <v>12651.1967425381</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1074033.890121724</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>1261524.372517579</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.210935631</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA12">
+        <v>1137.548395361373</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>383935.1327442697</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>802424.4274355237</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>267474.8091451746</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>267474.8091451746</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.210935631</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-5.30382091</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1859208.418780291</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>15096.77236049596</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.210935631</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>242.2398443115398</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>11393816.90859772</v>
+      </c>
+      <c r="AS12">
+        <v>23813077.33896924</v>
+      </c>
+      <c r="AT12">
+        <v>7937692.44632308</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>7502167.978328386</v>
       </c>
-      <c r="AH12">
-        <v>11393816.90859772</v>
-      </c>
-      <c r="AI12">
-        <v>23813077.33896924</v>
-      </c>
-      <c r="AJ12">
-        <v>7937692.44632308</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>15439860.42465147</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.210935631</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>29664.2081442275</v>
+      </c>
+      <c r="BB12">
+        <v>22952.81296589722</v>
+      </c>
+      <c r="BC12">
+        <v>47971.37909872518</v>
+      </c>
+      <c r="BD12">
+        <v>15990.45969957506</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>11347.34527710995</v>
       </c>
-      <c r="AO12">
-        <v>22952.81296589722</v>
-      </c>
-      <c r="AP12">
-        <v>47971.37909872518</v>
-      </c>
-      <c r="AQ12">
-        <v>15990.45969957506</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>27337.80497668501</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.210935631</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.4233702941832971</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>1261524.372517579</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>267474.8091451746</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>15439860.42465147</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>27337.80497668501</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>15096.77236049596</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>37783160.14722576</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>20771865.96357436</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.218279143</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>44.4276919157</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>303973.7372838462</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>637128.9533469416</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>212376.3177823139</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>19.49990272819391</v>
+      </c>
+      <c r="T13">
         <v>15454.64790723008</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1312035.212957554</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>1524411.530739868</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.218279143</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA13">
+        <v>1259.604574936609</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>410232.138141462</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>857385.1687156556</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>285795.0562385519</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>285795.0562385519</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.218279143</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-5.87290801</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>2058696.965866104</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>16716.61936283277</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.218279143</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>261.3753251430552</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>12154452.27281811</v>
+      </c>
+      <c r="AS13">
+        <v>25402805.25018985</v>
+      </c>
+      <c r="AT13">
+        <v>8467601.750063282</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>8094793.81968042</v>
       </c>
-      <c r="AH13">
-        <v>12154452.27281811</v>
-      </c>
-      <c r="AI13">
-        <v>25402805.25018985</v>
-      </c>
-      <c r="AJ13">
-        <v>8467601.750063282</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>16562395.5697437</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.218279143</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>32035.73701812427</v>
+      </c>
+      <c r="BB13">
+        <v>24102.91015990595</v>
+      </c>
+      <c r="BC13">
+        <v>50375.08223420343</v>
+      </c>
+      <c r="BD13">
+        <v>16791.69407806781</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>12254.51788174862</v>
       </c>
-      <c r="AO13">
-        <v>24102.91015990595</v>
-      </c>
-      <c r="AP13">
-        <v>50375.08223420343</v>
-      </c>
-      <c r="AQ13">
-        <v>16791.69407806781</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>29046.21195981643</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.218279143</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.3790901794878322</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>1524411.530739868</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>285795.0562385519</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>16562395.5697437</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>29046.21195981643</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>16716.61936283277</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>31725325.05197743</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>13306960.06393266</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.22580204</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>47.4929976633</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>344320.5273025686</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>721695.8252261839</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>240565.2750753946</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>23.82099713926207</v>
+      </c>
+      <c r="T14">
         <v>18879.33128272216</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>1602776.562022766</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>1843341.837098161</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.22580204</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA14">
+        <v>1398.914682017763</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>439179.1662193335</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>917884.4573984069</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>305961.4857994689</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>305961.4857994689</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.22580204</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-6.52244157</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>2286385.321774851</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>18565.44881281179</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.22580204</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>283.5945668203424</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>13027279.01245823</v>
+      </c>
+      <c r="AS14">
+        <v>27227013.1360377</v>
+      </c>
+      <c r="AT14">
+        <v>9075671.045345899</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>8782923.734426005</v>
       </c>
-      <c r="AH14">
-        <v>13027279.01245823</v>
-      </c>
-      <c r="AI14">
-        <v>27227013.1360377</v>
-      </c>
-      <c r="AJ14">
-        <v>9075671.045345899</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>17858594.7797719</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.22580204</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>34787.43524398323</v>
+      </c>
+      <c r="BB14">
+        <v>25395.49443056051</v>
+      </c>
+      <c r="BC14">
+        <v>53076.58335987147</v>
+      </c>
+      <c r="BD14">
+        <v>17692.19445329049</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>13307.11533236719</v>
       </c>
-      <c r="AO14">
-        <v>25395.49443056051</v>
-      </c>
-      <c r="AP14">
-        <v>53076.58335987147</v>
-      </c>
-      <c r="AQ14">
-        <v>17692.19445329049</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>30999.30978565768</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.22580204</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.3376919992968732</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>1843341.837098161</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>305961.4857994689</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>17858594.7797719</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>30999.30978565768</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>18565.44881281179</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>24768954.46735479</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>4711491.606086787</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.233645212</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>50.76979568660001</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>390022.5986276118</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>817487.3667234745</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>272495.7889078248</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>29.09962800541065</v>
+      </c>
+      <c r="T15">
         <v>23062.91017568822</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>1957944.978456864</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>2230440.767364689</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.233645212</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA15">
+        <v>1557.327228676786</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>470895.2954085006</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>984171.1674037662</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>328057.0558012554</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>328057.0558012554</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.233645212</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-7.26104028</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>2545294.693534212</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>20667.7929114978</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.233645212</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>309.0768910330477</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>14015772.81392263</v>
+      </c>
+      <c r="AS15">
+        <v>29292965.1810983</v>
+      </c>
+      <c r="AT15">
+        <v>9764321.727032766</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>9572111.315293487</v>
       </c>
-      <c r="AH15">
-        <v>14015772.81392263</v>
-      </c>
-      <c r="AI15">
-        <v>29292965.1810983</v>
-      </c>
-      <c r="AJ15">
-        <v>9764321.727032766</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>19336433.04232625</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.233645212</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>37941.65829599026</v>
+      </c>
+      <c r="BB15">
+        <v>26827.83254051034</v>
+      </c>
+      <c r="BC15">
+        <v>56070.1700096666</v>
+      </c>
+      <c r="BD15">
+        <v>18690.05666988887</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>14513.68918993056</v>
       </c>
-      <c r="AO15">
-        <v>26827.83254051034</v>
-      </c>
-      <c r="AP15">
-        <v>56070.1700096666</v>
-      </c>
-      <c r="AQ15">
-        <v>18690.05666988887</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>33203.74585981943</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.233645212</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.2994170417791748</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>2230440.767364689</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>328057.0558012554</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>19336433.04232625</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>33203.74585981943</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>20667.7929114978</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>16811998.25481429</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>-5136804.149449228</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.241779525</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>54.2726775769</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>441790.7584882481</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>925993.4297913681</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>308664.4765971227</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>35.54798065137834</v>
+      </c>
+      <c r="T16">
         <v>28173.55206524991</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>2391817.180539445</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>2700481.657136568</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.241779525</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA16">
+        <v>1737.374327862544</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>505601.2528774322</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>1056706.618513833</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>352235.539504611</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>352235.539504611</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.241779525</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-8.100510119999999</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>2839563.565037293</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>23057.25614810282</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.241779525</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>338.3103510664282</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>15134862.7664366</v>
+      </c>
+      <c r="AS16">
+        <v>31631863.18185249</v>
+      </c>
+      <c r="AT16">
+        <v>10543954.39395083</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>10477471.57252728</v>
       </c>
-      <c r="AH16">
-        <v>15134862.7664366</v>
-      </c>
-      <c r="AI16">
-        <v>31631863.18185249</v>
-      </c>
-      <c r="AJ16">
-        <v>10543954.39395083</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>21021425.96647811</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.241779525</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>41558.46049597165</v>
+      </c>
+      <c r="BB16">
+        <v>28412.80502638521</v>
+      </c>
+      <c r="BC16">
+        <v>59382.76250514509</v>
+      </c>
+      <c r="BD16">
+        <v>19794.2541683817</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>15897.21182308691</v>
       </c>
-      <c r="AO16">
-        <v>28412.80502638521</v>
-      </c>
-      <c r="AP16">
-        <v>59382.76250514509</v>
-      </c>
-      <c r="AQ16">
-        <v>19794.2541683817</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>35691.46599146861</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.241779525</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.2643263389434029</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>2700481.657136568</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>352235.539504611</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>21021425.96647811</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>35691.46599146861</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>23057.25614810282</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>7696111.185141779</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>-16436780.70011708</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.25027529</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>58.01724219250001</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>500430.1676415969</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1048901.631376787</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>349633.8771255957</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>43.42526060826003</v>
+      </c>
+      <c r="T17">
         <v>34416.69029507649</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>2921833.603175765</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>3271467.480301361</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.25027529</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA17">
+        <v>1941.360446476396</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>543433.5494778675</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>1135776.118408743</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>378592.039469581</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>378592.039469581</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.25027529</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-9.051595669999999</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>3172958.355612958</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>25764.42184757721</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.25027529</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>371.653312210236</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>16393730.86173617</v>
+      </c>
+      <c r="AS17">
+        <v>34262897.5010286</v>
+      </c>
+      <c r="AT17">
+        <v>11420965.8336762</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>11510103.07915101</v>
       </c>
-      <c r="AH17">
-        <v>16393730.86173617</v>
-      </c>
-      <c r="AI17">
-        <v>34262897.5010286</v>
-      </c>
-      <c r="AJ17">
-        <v>11420965.8336762</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>22931068.91282721</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.25027529</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>45682.13552417006</v>
+      </c>
+      <c r="BB17">
+        <v>30154.00135425797</v>
+      </c>
+      <c r="BC17">
+        <v>63021.86283039916</v>
+      </c>
+      <c r="BD17">
+        <v>21007.28761013305</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>17474.62673765524</v>
       </c>
-      <c r="AO17">
-        <v>30154.00135425797</v>
-      </c>
-      <c r="AP17">
-        <v>63021.86283039916</v>
-      </c>
-      <c r="AQ17">
-        <v>21007.28761013305</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>38481.91434778829</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.25027529</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.2324459649430091</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>3271467.480301361</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>378592.039469581</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>22931068.91282721</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>38481.91434778829</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>25764.42184757721</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>-2697534.961554802</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>-29342909.73034832</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.259149532</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>62.0201645597</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>566852.8557064488</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1188123.585560717</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>396041.1951869056</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>53.04811212994093</v>
+      </c>
+      <c r="T18">
         <v>42043.28126858469</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>3569299.399364221</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>3965340.594551127</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.259149532</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA18">
+        <v>2171.877791819996</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>584548.3398841898</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>1221706.030357957</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>407235.3434526522</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>407235.3434526522</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.259149532</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-10.1263831</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>3549715.767328662</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>28823.69203070873</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.259149532</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>409.5951427891008</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>17805823.84972117</v>
+      </c>
+      <c r="AS18">
+        <v>37214171.84591725</v>
+      </c>
+      <c r="AT18">
+        <v>12404723.94863908</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>12685161.57217845</v>
       </c>
-      <c r="AH18">
-        <v>17805823.84972117</v>
-      </c>
-      <c r="AI18">
-        <v>37214171.84591725</v>
-      </c>
-      <c r="AJ18">
-        <v>12404723.94863908</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>25089885.52081753</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.259149532</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>50372.90210690742</v>
+      </c>
+      <c r="BB18">
+        <v>32059.86855009349</v>
+      </c>
+      <c r="BC18">
+        <v>67005.12526969539</v>
+      </c>
+      <c r="BD18">
+        <v>22335.04175656513</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>19268.96919135757</v>
       </c>
-      <c r="AO18">
-        <v>32059.86855009349</v>
-      </c>
-      <c r="AP18">
-        <v>67005.12526969539</v>
-      </c>
-      <c r="AQ18">
-        <v>22335.04175656513</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>41604.0109479227</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.259149532</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.2037038445814403</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>3965340.594551127</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>407235.3434526522</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>25089885.52081753</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>41604.0109479227</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>28823.69203070873</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>-14541688.63341426</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>-44074577.7952142</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.268397389</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>66.2992703515</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>642091.909826141</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1345824.642995592</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>448608.2143318638</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>64.80334694622304</v>
+      </c>
+      <c r="T19">
         <v>51359.89262222908</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>4360240.884074656</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>4808849.09840652</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.268397389</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA19">
+        <v>2431.779444042651</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>629112.2625725811</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>1314844.628776694</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>438281.5429255648</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>438281.5429255648</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.268397389</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-11.3381749</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>3974498.872678448</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>32272.93084614899</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.268397389</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>452.7382031730936</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>19387890.84270393</v>
+      </c>
+      <c r="AS19">
+        <v>40520691.86125122</v>
+      </c>
+      <c r="AT19">
+        <v>13506897.28708374</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>14021302.15227071</v>
       </c>
-      <c r="AH19">
-        <v>19387890.84270393</v>
-      </c>
-      <c r="AI19">
-        <v>40520691.86125122</v>
-      </c>
-      <c r="AJ19">
-        <v>13506897.28708374</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>27528199.43935445</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.268397389</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>55704.86685009742</v>
+      </c>
+      <c r="BB19">
+        <v>34141.96165380667</v>
+      </c>
+      <c r="BC19">
+        <v>71356.69985645593</v>
+      </c>
+      <c r="BD19">
+        <v>23785.56661881864</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>21308.58692368283</v>
       </c>
-      <c r="AO19">
-        <v>34141.96165380667</v>
-      </c>
-      <c r="AP19">
-        <v>71356.69985645593</v>
-      </c>
-      <c r="AQ19">
-        <v>23785.56661881864</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>45094.15354250147</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.268397389</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.1779707985056183</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>4808849.09840652</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>438281.5429255648</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>27528199.43935445</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>45094.15354250147</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>32272.93084614899</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>-28012763.21271786</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>-60865460.37779305</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.278063229</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>70.87361430350001</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>727317.5247616417</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1524457.531900401</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>508152.5106334671</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>79.16349006879834</v>
+      </c>
+      <c r="T20">
         <v>62741.02405402613</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>5326451.52125326</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>5834604.031886727</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.278063229</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA20">
+        <v>2724.033902027424</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>677275.8061772854</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>1415506.434910526</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>471835.4783035087</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>471835.4783035087</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.278063229</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-12.7008117</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>4452159.384465946</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>36151.53420186348</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.278063229</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>501.6516999996432</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>21154484.14777867</v>
+      </c>
+      <c r="AS20">
+        <v>44212871.86885743</v>
+      </c>
+      <c r="AT20">
+        <v>14737623.95628581</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>15536153.14898895</v>
       </c>
-      <c r="AH20">
-        <v>21154484.14777867</v>
-      </c>
-      <c r="AI20">
-        <v>44212871.86885743</v>
-      </c>
-      <c r="AJ20">
-        <v>14737623.95628581</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>30273777.10527476</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.278063229</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>61748.03008625736</v>
+      </c>
+      <c r="BB20">
+        <v>36407.57796857233</v>
+      </c>
+      <c r="BC20">
+        <v>76091.83795431617</v>
+      </c>
+      <c r="BD20">
+        <v>25363.94598477206</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>23620.25691579041</v>
       </c>
-      <c r="AO20">
-        <v>36407.57796857233</v>
-      </c>
-      <c r="AP20">
-        <v>76091.83795431617</v>
-      </c>
-      <c r="AQ20">
-        <v>25363.94598477206</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>48984.20290056247</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.278063229</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.1550525428562836</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>5834604.031886727</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>471835.4783035087</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>30273777.10527476</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>48984.20290056247</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>36151.53420186348</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>-43318095.09025518</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>-79983447.44282259</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.288069767</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>75.7635671604</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>823855.2412461474</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1726800.585651925</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>575600.1952173084</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>96.70578019138948</v>
+      </c>
+      <c r="T21">
         <v>76644.16609068576</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>6506770.350407176</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>7082370.545624484</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.288069767</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA21">
+        <v>3052.050837721571</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>729225.8874749811</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>1524082.10482271</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>508027.3682742368</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>508027.3682742368</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.288069767</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-14.2301911</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>4988270.068487732</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>40504.75295612038</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.288069767</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>557.264431860836</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>23131969.99456056</v>
+      </c>
+      <c r="AS21">
+        <v>48345817.28863157</v>
+      </c>
+      <c r="AT21">
+        <v>16115272.42954385</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>17258479.45473009</v>
       </c>
-      <c r="AH21">
-        <v>23131969.99456056</v>
-      </c>
-      <c r="AI21">
-        <v>48345817.28863157</v>
-      </c>
-      <c r="AJ21">
-        <v>16115272.42954385</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>33373751.88427395</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.288069767</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>68616.50863198123</v>
+      </c>
+      <c r="BB21">
+        <v>38877.4219001612</v>
+      </c>
+      <c r="BC21">
+        <v>81253.8117713369</v>
+      </c>
+      <c r="BD21">
+        <v>27084.60392377897</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>26247.63187243214</v>
       </c>
-      <c r="AO21">
-        <v>38877.4219001612</v>
-      </c>
-      <c r="AP21">
-        <v>81253.8117713369</v>
-      </c>
-      <c r="AQ21">
-        <v>27084.60392377897</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>53332.2357962111</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.288069767</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.1347585701559584</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>7082370.545624484</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>508027.3682742368</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>33373751.88427395</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>53332.2357962111</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>40504.75295612038</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>-60673625.84804866</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>-101731612.6349737</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.298446827</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>80.990904263</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>933206.5237722902</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>1956000.87382672</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>652000.2912755734</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>118.1353667438538</v>
+      </c>
+      <c r="T22">
         <v>93628.18491284133</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>7948642.781663093</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>8600643.072938666</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.298446827</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA22">
+        <v>3419.17971933621</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>785103.0874671148</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>1640865.45280627</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>546955.1509354232</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>546955.1509354232</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.298446827</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-15.94193</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>5588305.293589951</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>45377.0389839504</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.298446827</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>620.3885430517377</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>25341055.38225504</v>
+      </c>
+      <c r="AS22">
+        <v>52962805.74891303</v>
+      </c>
+      <c r="AT22">
+        <v>17654268.58297101</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>19213433.17831231</v>
       </c>
-      <c r="AH22">
-        <v>25341055.38225504</v>
-      </c>
-      <c r="AI22">
-        <v>52962805.74891303</v>
-      </c>
-      <c r="AJ22">
-        <v>17654268.58297101</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>36867701.76128332</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.298446827</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>76410.05699826048</v>
+      </c>
+      <c r="BB22">
+        <v>41562.97356496128</v>
+      </c>
+      <c r="BC22">
+        <v>86866.61475076908</v>
+      </c>
+      <c r="BD22">
+        <v>28955.53825025636</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>29228.87053607859</v>
       </c>
-      <c r="AO22">
-        <v>41562.97356496128</v>
-      </c>
-      <c r="AP22">
-        <v>86866.61475076908</v>
-      </c>
-      <c r="AQ22">
-        <v>28955.53825025636</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>58184.40878633494</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.298446827</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1168674207399103</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>8600643.072938666</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>546955.1509354232</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>36867701.76128332</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>58184.40878633494</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>45377.0389839504</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>-80327109.76852015</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-126445971.2014479</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.309181429</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>86.578903322</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>1057072.12655514</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2215623.177259574</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>738541.0590865245</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>144.3136567501307</v>
+      </c>
+      <c r="T23">
         <v>114375.7886573161</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>9710027.891220063</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>10448568.95030659</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.309181429</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA23">
+        <v>3828.987687942472</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>845049.2330550499</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>1766152.897085054</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>588717.6323616847</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>588717.6323616847</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.309181429</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-17.8526602</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>6258095.1930113</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>50815.73296725175</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.309181429</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>692.0484335477832</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>27808432.601115</v>
+      </c>
+      <c r="AS23">
+        <v>58119624.13633035</v>
+      </c>
+      <c r="AT23">
+        <v>19373208.04544345</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>21432739.98697485</v>
       </c>
-      <c r="AH23">
-        <v>27808432.601115</v>
-      </c>
-      <c r="AI23">
-        <v>58119624.13633035</v>
-      </c>
-      <c r="AJ23">
-        <v>19373208.04544345</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>40805948.0324183</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.309181429</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>85254.43264653979</v>
+      </c>
+      <c r="BB23">
+        <v>44481.09189332144</v>
+      </c>
+      <c r="BC23">
+        <v>92965.48205704181</v>
+      </c>
+      <c r="BD23">
+        <v>30988.49401901394</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>32612.07846644157</v>
       </c>
-      <c r="AO23">
-        <v>44481.09189332144</v>
-      </c>
-      <c r="AP23">
-        <v>92965.48205704181</v>
-      </c>
-      <c r="AQ23">
-        <v>30988.49401901394</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>63600.5724854555</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.309181429</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.1011585819496585</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>10448568.95030659</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>588717.6323616847</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>40805948.0324183</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>63600.5724854555</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>50815.73296725175</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>-102547042.2062009</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-154504693.1267402</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.320282247</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>92.55244875380001</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>1197378.561656724</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>2509705.465232494</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>836568.4884108312</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>176.2929445350162</v>
+      </c>
+      <c r="T24">
         <v>139720.9731912272</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>11861728.45321356</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>12698296.94162439</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.320282247</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA24">
+        <v>4284.539364647942</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>909107.2490519305</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>1900034.150518535</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>633344.7168395115</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>633344.7168395115</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.320282247</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-19.9766705</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>7002648.581661833</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>56861.50648309408</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.320282247</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>773.310302059008</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>30560553.8677226</v>
+      </c>
+      <c r="AS24">
+        <v>63871557.58354024</v>
+      </c>
+      <c r="AT24">
+        <v>21290519.19451341</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>23949420.05476748</v>
       </c>
-      <c r="AH24">
-        <v>30560553.8677226</v>
-      </c>
-      <c r="AI24">
-        <v>63871557.58354024</v>
-      </c>
-      <c r="AJ24">
-        <v>21290519.19451341</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>45239939.24928088</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.320282247</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>95280.40379093279</v>
+      </c>
+      <c r="BB24">
+        <v>47646.19103389679</v>
+      </c>
+      <c r="BC24">
+        <v>99580.53926084428</v>
+      </c>
+      <c r="BD24">
+        <v>33193.51308694809</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>36447.27796883945</v>
       </c>
-      <c r="AO24">
-        <v>47646.19103389679</v>
-      </c>
-      <c r="AP24">
-        <v>99580.53926084428</v>
-      </c>
-      <c r="AQ24">
-        <v>33193.51308694809</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>69640.79105578754</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.320282247</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.08741915941079349</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>12698296.94162439</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>633344.7168395115</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>45239939.24928088</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>69640.79105578754</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>56861.50648309408</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>-127605127.3417646</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-186303210.5470483</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.331785781</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>98.9381409378</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>1356308.026802939</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2842821.62417896</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>947607.2080596532</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>215.3587030706262</v>
+      </c>
+      <c r="T25">
         <v>170682.5401186249</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>14490236.47882076</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>15437843.68688041</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.331785781</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA25">
+        <v>4789.180335627314</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>977343.4470244186</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>2042647.804281035</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>680882.6014270115</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>680882.6014270115</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.331785781</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-22.3295597</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>7827433.483589681</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>63558.7598867482</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.331785781</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>865.3405823670888</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>33625558.40907077</v>
+      </c>
+      <c r="AS25">
+        <v>70277417.07495792</v>
+      </c>
+      <c r="AT25">
+        <v>23425805.69165264</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>26799597.83590874</v>
       </c>
-      <c r="AH25">
-        <v>33625558.40907077</v>
-      </c>
-      <c r="AI25">
-        <v>70277417.07495792</v>
-      </c>
-      <c r="AJ25">
-        <v>23425805.69165264</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>50225403.52756138</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.331785781</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>106630.938181599</v>
+      </c>
+      <c r="BB25">
+        <v>51072.60938278721</v>
+      </c>
+      <c r="BC25">
+        <v>106741.7536100253</v>
+      </c>
+      <c r="BD25">
+        <v>35580.58453667509</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>40789.15799423511</v>
       </c>
-      <c r="AO25">
-        <v>51072.60938278721</v>
-      </c>
-      <c r="AP25">
-        <v>106741.7536100253</v>
-      </c>
-      <c r="AQ25">
-        <v>35580.58453667509</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>76369.7425309102</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.331785781</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.07544056563160781</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>15437843.68688041</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>680882.6014270115</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>50225403.52756138</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>76369.7425309102</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>63558.7598867482</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>-155809912.0307386</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-222293970.349025</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.343629759</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>105.7644169572</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>1536332.400955851</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3220152.712403464</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1073384.237467821</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>263.0812696186335</v>
+      </c>
+      <c r="T26">
         <v>208505.060236248</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>17701210.84297314</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>18774595.08044096</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.343629759</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA26">
+        <v>5348.097065885458</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>1050042.70991283</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>2194589.263717815</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>731529.7545726049</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>731529.7545726049</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.343629759</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-24.9355097</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>8740926.654104842</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>70976.3244313313</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.343629759</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>969.9196378310824</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>37049801.37788424</v>
+      </c>
+      <c r="AS26">
+        <v>77434084.87977806</v>
+      </c>
+      <c r="AT26">
+        <v>25811361.62659268</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>30038411.18362862</v>
       </c>
-      <c r="AH26">
-        <v>37049801.37788424</v>
-      </c>
-      <c r="AI26">
-        <v>77434084.87977806</v>
-      </c>
-      <c r="AJ26">
-        <v>25811361.62659268</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>55849772.8102213</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.343629759</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>119524.4979760031</v>
+      </c>
+      <c r="BB26">
+        <v>54792.25919065909</v>
+      </c>
+      <c r="BC26">
+        <v>114515.8217084775</v>
+      </c>
+      <c r="BD26">
+        <v>38171.94056949249</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>45721.2861038687</v>
       </c>
-      <c r="AO26">
-        <v>54792.25919065909</v>
-      </c>
-      <c r="AP26">
-        <v>114515.8217084775</v>
-      </c>
-      <c r="AQ26">
-        <v>38171.94056949249</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>83893.22667336121</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.343629759</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.06501204521559675</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>18774595.08044096</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>731529.7545726049</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>55849772.8102213</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>83893.22667336121</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>70976.3244313313</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>-187574157.9190725</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-263084925.1154121</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.35591326</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>113.0616742927</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>1740251.61568359</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3647567.386472804</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1215855.795490935</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>321.3789501376801</v>
+      </c>
+      <c r="T27">
         <v>254708.8869316184</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>21623723.21346552</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>22839579.00895645</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.35591326</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA27">
+        <v>5960.990016634029</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>1126767.697265345</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>2354944.48728457</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>784981.4957615235</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>784981.4957615235</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.35591326</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-27.7931239</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>9742638.527190335</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>79110.22484078551</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.35591326</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>1088.106187746637</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>40853670.55925723</v>
+      </c>
+      <c r="AS27">
+        <v>85384171.4688476</v>
+      </c>
+      <c r="AT27">
+        <v>28461390.48961587</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>33698648.63451334</v>
       </c>
-      <c r="AH27">
-        <v>40853670.55925723</v>
-      </c>
-      <c r="AI27">
-        <v>85384171.4688476</v>
-      </c>
-      <c r="AJ27">
-        <v>28461390.48961587</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>62160039.12412921</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.35591326</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>134090.2278539996</v>
+      </c>
+      <c r="BB27">
+        <v>58806.06584867184</v>
+      </c>
+      <c r="BC27">
+        <v>122904.6776237241</v>
+      </c>
+      <c r="BD27">
+        <v>40968.22587457471</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>51293.06355820491</v>
       </c>
-      <c r="AO27">
-        <v>58806.06584867184</v>
-      </c>
-      <c r="AP27">
-        <v>122904.6776237241</v>
-      </c>
-      <c r="AQ27">
-        <v>40968.22587457471</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>92261.28943277962</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.35591326</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.05597399153629114</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>22839579.00895645</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>784981.4957615235</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>62160039.12412921</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>92261.28943277962</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>79110.22484078551</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>-223117763.5153754</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-309073734.6584961</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.368586819</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>120.8624086245</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>1971237.26477538</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>4131713.306969197</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1377237.768989732</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>392.5951452580294</v>
+      </c>
+      <c r="T28">
         <v>311151.2823742512</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>26415447.40989737</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>27792685.1788871</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.368586819</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA28">
+        <v>6634.912290413834</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>1208009.368777452</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>2524739.580744874</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>841579.8602482914</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>841579.8602482914</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.368586819</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-30.9352874</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>10844096.68943136</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>88054.06511818265</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.368586819</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>1222.268353924117</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>45097459.45659567</v>
+      </c>
+      <c r="AS28">
+        <v>94253690.26428494</v>
+      </c>
+      <c r="AT28">
+        <v>31417896.75476164</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>37853650.9210299</v>
       </c>
-      <c r="AH28">
-        <v>45097459.45659567</v>
-      </c>
-      <c r="AI28">
-        <v>94253690.26428494</v>
-      </c>
-      <c r="AJ28">
-        <v>31417896.75476164</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>69271547.67579153</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.368586819</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>150618.4954541942</v>
+      </c>
+      <c r="BB28">
+        <v>63154.81065351429</v>
+      </c>
+      <c r="BC28">
+        <v>131993.5542658448</v>
+      </c>
+      <c r="BD28">
+        <v>43997.85142194827</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>57615.56366945005</v>
       </c>
-      <c r="AO28">
-        <v>63154.81065351429</v>
-      </c>
-      <c r="AP28">
-        <v>131993.5542658448</v>
-      </c>
-      <c r="AQ28">
-        <v>43997.85142194827</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>101613.4150913983</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.368586819</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.04813808518320774</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>27792685.1788871</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>841579.8602482914</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>69271547.67579153</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>101613.4150913983</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>88054.06511818265</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-263027538.079781</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-361123018.2749175</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.381791169</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>129.2013578682</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>2232881.918008374</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>4680120.500145552</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1560040.166715184</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>479.5925456247509</v>
+      </c>
+      <c r="T29">
         <v>380101.0720348964</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>32268997.2612959</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>33829037.42801108</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.381791169</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA29">
+        <v>7361.900672343778</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>1292471.279794202</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>2701264.974769883</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>900421.6582566276</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>900421.6582566276</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.381791169</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-34.3248717</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>12032286.06717668</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>97702.16286547465</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.381791169</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>1373.159267669616</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>49787838.25148913</v>
+      </c>
+      <c r="AS29">
+        <v>104056581.9456123</v>
+      </c>
+      <c r="AT29">
+        <v>34685527.31520408</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>42526742.51972801</v>
       </c>
-      <c r="AH29">
-        <v>49787838.25148913</v>
-      </c>
-      <c r="AI29">
-        <v>104056581.9456123</v>
-      </c>
-      <c r="AJ29">
-        <v>34685527.31520408</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>77212269.83493209</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.381791169</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>169200.1283972998</v>
+      </c>
+      <c r="BB29">
+        <v>67821.61395866175</v>
+      </c>
+      <c r="BC29">
+        <v>141747.173173603</v>
+      </c>
+      <c r="BD29">
+        <v>47249.05772453434</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>64723.53040811289</v>
       </c>
-      <c r="AO29">
-        <v>67821.61395866175</v>
-      </c>
-      <c r="AP29">
-        <v>141747.173173603</v>
-      </c>
-      <c r="AQ29">
-        <v>47249.05772453434</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>111972.5881326472</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.381791169</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.04138586407471936</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>33829037.42801108</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>900421.6582566276</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>77212269.83493209</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>111972.5881326472</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>97702.16286547465</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-307253340.3486359</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-419404744.0208338</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.395541547</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>138.1156560537</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>2529254.971061276</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>5301318.419344435</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1767106.139781478</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>585.8681951441167</v>
+      </c>
+      <c r="T30">
         <v>464329.8380614698</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>39419668.5437602</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>41186774.68354167</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.395541547</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA30">
+        <v>8143.448952881427</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>1380075.599692711</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>2884358.003357767</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>961452.6677859222</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>961452.6677859222</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.395541547</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-37.9688416</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>13309648.11065902</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>108074.3426585512</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.395541547</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>1543.029331908299</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>54976684.98403829</v>
+      </c>
+      <c r="AS30">
+        <v>114901271.61664</v>
+      </c>
+      <c r="AT30">
+        <v>38300423.87221334</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>47787618.40920002</v>
       </c>
-      <c r="AH30">
-        <v>54976684.98403829</v>
-      </c>
-      <c r="AI30">
-        <v>114901271.61664</v>
-      </c>
-      <c r="AJ30">
-        <v>38300423.87221334</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>86088042.28141336</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.395541547</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>190110.390818776</v>
+      </c>
+      <c r="BB30">
+        <v>72834.28355154053</v>
+      </c>
+      <c r="BC30">
+        <v>152223.6526227197</v>
+      </c>
+      <c r="BD30">
+        <v>50741.21754090657</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>72722.25959642732</v>
       </c>
-      <c r="AO30">
-        <v>72834.28355154053</v>
-      </c>
-      <c r="AP30">
-        <v>152223.6526227197</v>
-      </c>
-      <c r="AQ30">
-        <v>50741.21754090657</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>123463.4771373339</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.395541547</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.03556686319346033</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>41186774.68354167</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>961452.6677859222</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>86088042.28141336</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>123463.4771373339</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>108074.3426585512</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-356244597.9677625</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-484712405.4202994</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.40988542</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>147.645</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>2864965.979240548</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>6004968.692488189</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2001656.230829396</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>715.6940763959248</v>
+      </c>
+      <c r="T31">
         <v>567223.3402475902</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>48154898.15643605</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>50156554.38726544</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.40988542</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>441.9245749220249</v>
+      </c>
+      <c r="AA31">
+        <v>8976.840135484679</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>1470305.902584179</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>3072939.336400934</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>1024313.112133645</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>1024313.112133645</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.40988542</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-41.8545291</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>14671742.16235078</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>119134.5463582883</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.40988542</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>1734.011104430892</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>60709210.85628423</v>
+      </c>
+      <c r="AS31">
+        <v>126882250.689634</v>
+      </c>
+      <c r="AT31">
+        <v>42294083.56321134</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>53702323.90422472</v>
       </c>
-      <c r="AH31">
-        <v>60709210.85628423</v>
-      </c>
-      <c r="AI31">
-        <v>126882250.689634</v>
-      </c>
-      <c r="AJ31">
-        <v>42294083.56321134</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>95996407.46743608</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.40988542</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>213608.9413823618</v>
+      </c>
+      <c r="BB31">
+        <v>78210.87294471206</v>
+      </c>
+      <c r="BC31">
+        <v>163460.7244544482</v>
+      </c>
+      <c r="BD31">
+        <v>54486.90815148273</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>81711.07755038045</v>
       </c>
-      <c r="AO31">
-        <v>78210.87294471206</v>
-      </c>
-      <c r="AP31">
-        <v>163460.7244544482</v>
-      </c>
-      <c r="AQ31">
-        <v>54486.90815148273</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>136197.9857018632</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.40988542</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.03055775651802697</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>50156554.38726544</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>1024313.112133645</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>95996407.46743608</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>136197.9857018632</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>119134.5463582883</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-410306099.0534362</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-557738706.5523316</v>
       </c>
     </row>
